--- a/datas/InitialReward.xlsx
+++ b/datas/InitialReward.xlsx
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>STREAMER</t>
+          <t>ANCHOR</t>
         </is>
       </c>
       <c r="C3" t="n">
